--- a/html/resources/oiaConditions/train1P2Block6.xlsx
+++ b/html/resources/oiaConditions/train1P2Block6.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/oiaConditions/train1P2Block6.xlsx
+++ b/html/resources/oiaConditions/train1P2Block6.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
+    <t>trainingaudio/18_popata1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.mp3</t>
   </si>
   <si>
     <t>pngimages/18_donut.png</t>

--- a/html/resources/oiaConditions/train1P2Block6.xlsx
+++ b/html/resources/oiaConditions/train1P2Block6.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.mp3</t>
+    <t>trainingaudio/18_popata1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.ogg</t>
   </si>
   <si>
     <t>pngimages/18_donut.png</t>

--- a/html/resources/oiaConditions/train1P2Block6.xlsx
+++ b/html/resources/oiaConditions/train1P2Block6.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.ogg</t>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
   </si>
   <si>
     <t>pngimages/18_donut.png</t>
